--- a/Data/Canini.xlsx
+++ b/Data/Canini.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk-my.sharepoint.com/personal/jweave49_uthsc_edu/Documents/GitHub/VirtualPatient/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_98B207972A5E6CF24BFC9890E22D62B1A035EC1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D403A8C4-F721-4151-AA43-99A7CCCCF508}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="11_98B207972A5E6CF24BFC9890E22D62B1A035EC1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{118C1C22-DA0A-4110-BCAF-9CD7D090A9C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:F353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7499,6 +7499,10 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F353">
+    <sortCondition ref="A2:A353"/>
+    <sortCondition ref="B2:B353"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>